--- a/doc/中期检查/Data.xlsx
+++ b/doc/中期检查/Data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>ms</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>Semantic amout per times</t>
+  </si>
+  <si>
+    <t>total time</t>
+  </si>
+  <si>
+    <t>total semantic</t>
   </si>
 </sst>
 </file>
@@ -226,11 +232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="117097600"/>
-        <c:axId val="117134080"/>
+        <c:axId val="111308800"/>
+        <c:axId val="111310336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117097600"/>
+        <c:axId val="111308800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -239,7 +245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117134080"/>
+        <c:crossAx val="111310336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -247,7 +253,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117134080"/>
+        <c:axId val="111310336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -258,7 +264,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117097600"/>
+        <c:crossAx val="111308800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -358,11 +364,11 @@
         </c:dLbls>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="45352064"/>
-        <c:axId val="45353600"/>
+        <c:axId val="111334912"/>
+        <c:axId val="111336448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45352064"/>
+        <c:axId val="111334912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -371,7 +377,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45353600"/>
+        <c:crossAx val="111336448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -379,7 +385,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45353600"/>
+        <c:axId val="111336448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -395,7 +401,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="45352064"/>
+        <c:crossAx val="111334912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -769,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H10"/>
+  <dimension ref="A2:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,7 +786,7 @@
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -791,7 +797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -804,8 +810,14 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
+      <c r="L4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>901</v>
       </c>
@@ -821,8 +833,19 @@
       <c r="H5">
         <v>10</v>
       </c>
+      <c r="L5">
+        <f>SUM(A5:A10)</f>
+        <v>8680</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f>SUM(H5:H10)</f>
+        <v>57</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>849</v>
       </c>
@@ -839,7 +862,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1430</v>
       </c>
@@ -856,7 +879,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1480</v>
       </c>
@@ -873,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2230</v>
       </c>
@@ -890,7 +913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1790</v>
       </c>
